--- a/data-raw/admin_mismatch_fix.xlsx
+++ b/data-raw/admin_mismatch_fix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\01_Professional\10_REACH_HQ_WORK\02_efficiency\REACH_GLOBAL_MSNA_DASHBOARD\output\01_data_diagnosis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\01_Professional\10_REACH_HQ_WORK\02_efficiency\MSNAdashboardTemplate\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00F1B7C-BDD8-470E-BA48-306B5070B521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABCCDAD-C990-4AAF-B4F6-E8A2B25B90D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strata_list_not_found" sheetId="1" r:id="rId1"/>
@@ -5156,11 +5156,12 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="38.21875" customWidth="1"/>
     <col min="2" max="2" width="39.88671875" customWidth="1"/>
   </cols>
   <sheetData>
